--- a/uploaded_files/cleaned_Hanif+Rajput-Roof+Top+Grill_Profit+and+Loss.xlsx
+++ b/uploaded_files/cleaned_Hanif+Rajput-Roof+Top+Grill_Profit+and+Loss.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>outliers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Account type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Account hierarchy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>outliers</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -498,14 +498,14 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -525,29 +525,29 @@
       <c r="C3" t="n">
         <v>8593215.15</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>1793932.529999999</v>
       </c>
       <c r="H3" t="n">
-        <v>91.18540370951469</v>
+        <v>91.2</v>
       </c>
       <c r="I3" t="n">
-        <v>86.82268588518167</v>
+        <v>86.8</v>
       </c>
       <c r="J3" t="n">
-        <v>20.87615052906012</v>
+        <v>20.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.362717824333018</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="4">
@@ -558,14 +558,14 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -585,29 +585,29 @@
       <c r="C5" t="n">
         <v>171651</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>21760.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.697896886892321</v>
+        <v>1.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.73429858262973</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>12.67717636366814</v>
+        <v>12.7</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0364016957374081</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -622,29 +622,29 @@
       <c r="C6" t="n">
         <v>487730</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>-7346</v>
       </c>
       <c r="H6" t="n">
-        <v>4.21713547598194</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.927844566626457</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.506161195743547</v>
+        <v>-1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.7107090906445173</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="7">
@@ -659,29 +659,29 @@
       <c r="C7" t="n">
         <v>659381</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>14414.5</v>
       </c>
       <c r="H7" t="n">
-        <v>5.915032362874262</v>
+        <v>5.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6.662143149256186</v>
+        <v>6.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.186065415897637</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.7471107863819243</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="8">
@@ -696,29 +696,29 @@
       <c r="C8" t="n">
         <v>402590</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>-330015</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6371124083428867</v>
+        <v>0.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.067621315232086</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>-81.97297498695943</v>
+        <v>-82</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.430508906889199</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="9">
@@ -733,29 +733,29 @@
       <c r="C9" t="n">
         <v>65700.95</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>-16298.95</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4336841501475066</v>
+        <v>0.4</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6638182385329927</v>
+        <v>0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>-24.80778436232657</v>
+        <v>-24.8</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2301340883854862</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="10">
@@ -770,29 +770,29 @@
       <c r="C10" t="n">
         <v>176543.58</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>31775.69</v>
       </c>
       <c r="H10" t="n">
-        <v>1.828767369120663</v>
+        <v>1.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.783731411797066</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>17.99877967808289</v>
+        <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04503595732359596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -807,18 +807,18 @@
       <c r="C11" t="n">
         <v>9897430.68</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1493808.77</v>
@@ -830,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="J11" t="n">
-        <v>15.09289449249267</v>
+        <v>15.1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -844,14 +844,14 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -867,14 +867,14 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -890,14 +890,14 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -917,29 +917,29 @@
       <c r="C15" t="n">
         <v>643501</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>118677</v>
       </c>
       <c r="H15" t="n">
-        <v>6.690913691573748</v>
+        <v>6.7</v>
       </c>
       <c r="I15" t="n">
-        <v>6.501697468822283</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>18.44239558291284</v>
+        <v>18.4</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1892162227514649</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -954,29 +954,29 @@
       <c r="C16" t="n">
         <v>1089110</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>597385</v>
       </c>
       <c r="H16" t="n">
-        <v>14.80519312584549</v>
+        <v>14.8</v>
       </c>
       <c r="I16" t="n">
-        <v>11.0039669406404</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85074969470485</v>
+        <v>54.9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.801226185205098</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17">
@@ -991,29 +991,29 @@
       <c r="C17" t="n">
         <v>123246</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>6844</v>
       </c>
       <c r="H17" t="n">
-        <v>1.142017956614897</v>
+        <v>1.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.245232262642126</v>
+        <v>1.2</v>
       </c>
       <c r="J17" t="n">
-        <v>5.553121399477467</v>
+        <v>5.6</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1032143060272295</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="18">
@@ -1028,29 +1028,29 @@
       <c r="C18" t="n">
         <v>48901</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>28889</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6828932035135123</v>
+        <v>0.7</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4940777215930953</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="n">
-        <v>59.07650150303675</v>
+        <v>59.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.188815481920417</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -1065,29 +1065,29 @@
       <c r="C19" t="n">
         <v>1904758</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>751795</v>
       </c>
       <c r="H19" t="n">
-        <v>23.32101797754765</v>
+        <v>23.3</v>
       </c>
       <c r="I19" t="n">
-        <v>19.2449743936979</v>
+        <v>19.2</v>
       </c>
       <c r="J19" t="n">
-        <v>39.46931841210274</v>
+        <v>39.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.07604358384975</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="20">
@@ -1098,14 +1098,14 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1125,29 +1125,29 @@
       <c r="C21" t="n">
         <v>244105</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>4658</v>
       </c>
       <c r="H21" t="n">
-        <v>2.183809769708598</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.466347155057822</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.908195243849983</v>
+        <v>1.9</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2825373853492235</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="22">
@@ -1162,29 +1162,29 @@
       <c r="C22" t="n">
         <v>171683</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>-18070</v>
       </c>
       <c r="H22" t="n">
-        <v>1.348518751398909</v>
+        <v>1.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.734621898862342</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>-10.52521216427952</v>
+        <v>-10.5</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.3861031474634324</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="23">
@@ -1199,29 +1199,29 @@
       <c r="C23" t="n">
         <v>73056</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>10376</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7324224933222698</v>
+        <v>0.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7381309590541129</v>
+        <v>0.7</v>
       </c>
       <c r="J23" t="n">
-        <v>14.20280332895313</v>
+        <v>14.2</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.005708465731843037</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -1236,29 +1236,29 @@
       <c r="C24" t="n">
         <v>10714</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>14652</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2226798945921552</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1082503161315397</v>
+        <v>0.1</v>
       </c>
       <c r="J24" t="n">
-        <v>136.7556468172484</v>
+        <v>136.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1144295784606155</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
@@ -1273,29 +1273,29 @@
       <c r="C25" t="n">
         <v>550789</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>39818</v>
       </c>
       <c r="H25" t="n">
-        <v>5.184747477150084</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5.564969513886002</v>
+        <v>5.6</v>
       </c>
       <c r="J25" t="n">
-        <v>7.229265653453501</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.3802220367359187</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="26">
@@ -1310,29 +1310,29 @@
       <c r="C26" t="n">
         <v>1050347</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>51434</v>
       </c>
       <c r="H26" t="n">
-        <v>9.672178386172016</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>10.61231984299182</v>
+        <v>10.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.896857895533572</v>
+        <v>4.9</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.9401414568198028</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="27">
@@ -1347,29 +1347,29 @@
       <c r="C27" t="n">
         <v>107006</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>114164</v>
       </c>
       <c r="H27" t="n">
-        <v>1.941579763736772</v>
+        <v>1.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.081149274591333</v>
+        <v>1.1</v>
       </c>
       <c r="J27" t="n">
-        <v>106.689344522737</v>
+        <v>106.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8604304891454396</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28">
@@ -1384,29 +1384,29 @@
       <c r="C28" t="n">
         <v>383984</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>78498</v>
       </c>
       <c r="H28" t="n">
-        <v>4.059979618811367</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.879633133232513</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>20.44303929330389</v>
+        <v>20.4</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1803464855788535</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
@@ -1421,29 +1421,29 @@
       <c r="C29" t="n">
         <v>362322</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>51511</v>
       </c>
       <c r="H29" t="n">
-        <v>3.632905811667404</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.660768251018456</v>
+        <v>3.7</v>
       </c>
       <c r="J29" t="n">
-        <v>14.21691202852711</v>
+        <v>14.2</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0278624393510514</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
@@ -1458,29 +1458,29 @@
       <c r="C30" t="n">
         <v>253052</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
         <v>15771</v>
       </c>
       <c r="H30" t="n">
-        <v>2.359910009617084</v>
+        <v>2.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556744352969795</v>
+        <v>2.6</v>
       </c>
       <c r="J30" t="n">
-        <v>6.232315887643646</v>
+        <v>6.2</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.1968343433527118</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="31">
@@ -1495,29 +1495,29 @@
       <c r="C31" t="n">
         <v>165021</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>38003</v>
       </c>
       <c r="H31" t="n">
-        <v>1.782281909630124</v>
+        <v>1.8</v>
       </c>
       <c r="I31" t="n">
-        <v>1.667311500685347</v>
+        <v>1.7</v>
       </c>
       <c r="J31" t="n">
-        <v>23.02919022427449</v>
+        <v>23</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1149704089447763</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
@@ -1532,29 +1532,29 @@
       <c r="C32" t="n">
         <v>124642</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
         <v>-31488</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8177687810785156</v>
+        <v>0.8</v>
       </c>
       <c r="I32" t="n">
-        <v>1.259336933289843</v>
+        <v>1.3</v>
       </c>
       <c r="J32" t="n">
-        <v>-25.26275252322652</v>
+        <v>-25.3</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.4415681522113269</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="33">
@@ -1569,29 +1569,29 @@
       <c r="C33" t="n">
         <v>4351132</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1069688</v>
       </c>
       <c r="H33" t="n">
-        <v>47.58762225826093</v>
+        <v>47.6</v>
       </c>
       <c r="I33" t="n">
-        <v>43.96223768247701</v>
+        <v>44</v>
       </c>
       <c r="J33" t="n">
-        <v>24.58413120999317</v>
+        <v>24.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.625384575783924</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="34">
@@ -1602,14 +1602,14 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1629,29 +1629,29 @@
       <c r="C35" t="n">
         <v>1569734</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>102399</v>
       </c>
       <c r="H35" t="n">
-        <v>14.67911378159995</v>
+        <v>14.7</v>
       </c>
       <c r="I35" t="n">
-        <v>15.86001509636236</v>
+        <v>15.9</v>
       </c>
       <c r="J35" t="n">
-        <v>6.523334526741473</v>
+        <v>6.5</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.180901314762414</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="36">
@@ -1666,29 +1666,29 @@
       <c r="C36" t="n">
         <v>1569734</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>102399</v>
       </c>
       <c r="H36" t="n">
-        <v>14.67911378159995</v>
+        <v>14.7</v>
       </c>
       <c r="I36" t="n">
-        <v>15.86001509636236</v>
+        <v>15.9</v>
       </c>
       <c r="J36" t="n">
-        <v>6.523334526741473</v>
+        <v>6.5</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.180901314762414</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="37">
@@ -1699,14 +1699,14 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1726,29 +1726,29 @@
       <c r="C38" t="n">
         <v>925668</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
         <v>180392</v>
       </c>
       <c r="H38" t="n">
-        <v>9.709742340637041</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>9.352609075308017</v>
+        <v>9.4</v>
       </c>
       <c r="J38" t="n">
-        <v>19.48776451168238</v>
+        <v>19.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3571332653290238</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
@@ -1763,29 +1763,29 @@
       <c r="C39" t="n">
         <v>1009609</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
         <v>678414</v>
       </c>
       <c r="H39" t="n">
-        <v>14.81860694272387</v>
+        <v>14.8</v>
       </c>
       <c r="I39" t="n">
-        <v>10.20071807161169</v>
+        <v>10.2</v>
       </c>
       <c r="J39" t="n">
-        <v>67.19571636148251</v>
+        <v>67.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.617888871112173</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="40">
@@ -1800,29 +1800,29 @@
       <c r="C40" t="n">
         <v>42820</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
         <v>-8900</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2977726888183357</v>
+        <v>0.3</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4326375337644699</v>
+        <v>0.4</v>
       </c>
       <c r="J40" t="n">
-        <v>-20.78468005604858</v>
+        <v>-20.8</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.1348648449461342</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="41">
@@ -1837,29 +1837,29 @@
       <c r="C41" t="n">
         <v>5660</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
         <v>-2370</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02888184393314637</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05718655864331853</v>
+        <v>0.1</v>
       </c>
       <c r="J41" t="n">
-        <v>-41.87279151943463</v>
+        <v>-41.9</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.02830471471017216</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42">
@@ -1874,29 +1874,29 @@
       <c r="C42" t="n">
         <v>52220</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
         <v>-2220</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4389337983760845</v>
+        <v>0.4</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5276116770943629</v>
+        <v>0.5</v>
       </c>
       <c r="J42" t="n">
-        <v>-4.25124473381846</v>
+        <v>-4.3</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.08867787871827829</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="43">
@@ -1911,29 +1911,29 @@
       <c r="C43" t="n">
         <v>2035977</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>845316</v>
       </c>
       <c r="H43" t="n">
-        <v>25.29393761448848</v>
+        <v>25.3</v>
       </c>
       <c r="I43" t="n">
-        <v>20.57076291642186</v>
+        <v>20.6</v>
       </c>
       <c r="J43" t="n">
-        <v>41.51893660881238</v>
+        <v>41.5</v>
       </c>
       <c r="K43" t="n">
-        <v>4.723174698066615</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="44">
@@ -1948,33 +1948,33 @@
       <c r="C44" t="n">
         <v>7956843</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>2017403</v>
       </c>
       <c r="H44" t="n">
-        <v>87.56067365434936</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>80.39301569526123</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>25.35431451896186</v>
+        <v>25.4</v>
       </c>
       <c r="K44" t="n">
-        <v>7.167657959088125</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="45">
@@ -1989,29 +1989,29 @@
       <c r="C45" t="n">
         <v>1940587.68</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
         <v>-523594.2300000004</v>
       </c>
       <c r="H45" t="n">
-        <v>12.43932634565064</v>
+        <v>12.4</v>
       </c>
       <c r="I45" t="n">
-        <v>19.60698430473877</v>
+        <v>19.6</v>
       </c>
       <c r="J45" t="n">
-        <v>-26.98121993642671</v>
+        <v>-27</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.167657959088128</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="46">
@@ -2022,14 +2022,14 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -2049,29 +2049,29 @@
       <c r="C47" t="n">
         <v>11990</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Other Income(Loss)</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
         <v>-1500</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09208831089930254</v>
+        <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1211425509069592</v>
+        <v>0.1</v>
       </c>
       <c r="J47" t="n">
-        <v>-12.51042535446205</v>
+        <v>-12.5</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.02905424000765668</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48">
@@ -2086,29 +2086,29 @@
       <c r="C48" t="n">
         <v>11990</v>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>-1500</v>
       </c>
       <c r="H48" t="n">
-        <v>0.09208831089930254</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1211425509069592</v>
+        <v>0.1</v>
       </c>
       <c r="J48" t="n">
-        <v>-12.51042535446205</v>
+        <v>-12.5</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.02905424000765668</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49">
@@ -2119,14 +2119,14 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -2142,14 +2142,14 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2165,14 +2165,14 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2192,29 +2192,29 @@
       <c r="C52" t="n">
         <v>164500</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
         <v>-149500</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1316801395128254</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>1.662047508273127</v>
+        <v>1.7</v>
       </c>
       <c r="J52" t="n">
-        <v>-90.88145896656535</v>
+        <v>-90.90000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.530367368760301</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="53">
@@ -2229,29 +2229,29 @@
       <c r="C53" t="n">
         <v>126083</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
         <v>-21083</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9217609765897775</v>
+        <v>0.9</v>
       </c>
       <c r="I53" t="n">
-        <v>1.27389626738967</v>
+        <v>1.3</v>
       </c>
       <c r="J53" t="n">
-        <v>-16.72152470991331</v>
+        <v>-16.7</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.3521352907998921</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="54">
@@ -2266,29 +2266,29 @@
       <c r="C54" t="n">
         <v>54500</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4784378402299322</v>
+        <v>0.5</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5506479586679965</v>
+        <v>0.6</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.07221011843806428</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="55">
@@ -2303,29 +2303,29 @@
       <c r="C55" t="n">
         <v>345083</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>-170583</v>
       </c>
       <c r="H55" t="n">
-        <v>1.531878956332535</v>
+        <v>1.5</v>
       </c>
       <c r="I55" t="n">
-        <v>3.486591734330793</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>-49.43245538029981</v>
+        <v>-49.4</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.954712777998258</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
@@ -2340,29 +2340,29 @@
       <c r="C56" t="n">
         <v>251548</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>212701</v>
       </c>
       <c r="H56" t="n">
-        <v>4.075491539245977</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>2.541548490037012</v>
+        <v>2.5</v>
       </c>
       <c r="J56" t="n">
-        <v>84.55682414489482</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>1.533943049208965</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57">
@@ -2377,29 +2377,29 @@
       <c r="C57" t="n">
         <v>596631</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>42118</v>
       </c>
       <c r="H57" t="n">
-        <v>5.607370495578513</v>
+        <v>5.6</v>
       </c>
       <c r="I57" t="n">
-        <v>6.028140224367806</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>7.059304662345737</v>
+        <v>7.1</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.4207697287892928</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="58">
@@ -2410,14 +2410,14 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2437,29 +2437,29 @@
       <c r="C59" t="n">
         <v>1130</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
         <v>365</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01312412057144493</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01141710446412543</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>32.30088495575221</v>
+        <v>32.3</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001707016107319497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2472,19 +2472,19 @@
       <c r="C60" t="n">
         <v>100000</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>1.010363226913755</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2501,29 +2501,29 @@
       <c r="C61" t="n">
         <v>10162</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
         <v>28260</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3372942880241184</v>
+        <v>0.3</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1026731111189758</v>
+        <v>0.1</v>
       </c>
       <c r="J61" t="n">
-        <v>278.0948632159024</v>
+        <v>278.1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2346211769051426</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62">
@@ -2538,29 +2538,29 @@
       <c r="C62" t="n">
         <v>111292</v>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>-71375</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3504184085955633</v>
+        <v>0.4</v>
       </c>
       <c r="I62" t="n">
-        <v>1.124453442496856</v>
+        <v>1.1</v>
       </c>
       <c r="J62" t="n">
-        <v>-64.13309132731912</v>
+        <v>-64.09999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.7740350339012929</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="63">
@@ -2571,14 +2571,14 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2598,29 +2598,29 @@
       <c r="C64" t="n">
         <v>32805</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
         <v>-7805</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2194668991880423</v>
+        <v>0.2</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3314496565890573</v>
+        <v>0.3</v>
       </c>
       <c r="J64" t="n">
-        <v>-23.79210486206371</v>
+        <v>-23.8</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.111982757401015</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="65">
@@ -2635,29 +2635,29 @@
       <c r="C65" t="n">
         <v>7490</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
         <v>840</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07312637080945568</v>
+        <v>0.1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.07567620569584026</v>
+        <v>0.1</v>
       </c>
       <c r="J65" t="n">
-        <v>11.21495327102804</v>
+        <v>11.2</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.002549834886384568</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,29 +2672,29 @@
       <c r="C66" t="n">
         <v>40295</v>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>-6965</v>
       </c>
       <c r="H66" t="n">
-        <v>0.292593269997498</v>
+        <v>0.3</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4071258622848976</v>
+        <v>0.4</v>
       </c>
       <c r="J66" t="n">
-        <v>-17.2850229557017</v>
+        <v>-17.3</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.1145325922873996</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="67">
@@ -2705,14 +2705,14 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2732,29 +2732,29 @@
       <c r="C68" t="n">
         <v>88360</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
         <v>-66990</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1876003054259385</v>
+        <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8927569473009939</v>
+        <v>0.9</v>
       </c>
       <c r="J68" t="n">
-        <v>-75.81484834766863</v>
+        <v>-75.8</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.7051566418750553</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="69">
@@ -2769,29 +2769,29 @@
       <c r="C69" t="n">
         <v>11415</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
         <v>-2315</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07988595130444738</v>
+        <v>0.1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1153329623522051</v>
+        <v>0.1</v>
       </c>
       <c r="J69" t="n">
-        <v>-20.28033289531319</v>
+        <v>-20.3</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.03544701104775774</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70">
@@ -2804,19 +2804,19 @@
       <c r="C70" t="n">
         <v>56260</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>0.5684303514616785</v>
+        <v>0.6</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2833,29 +2833,29 @@
       <c r="C71" t="n">
         <v>156035</v>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>-125565</v>
       </c>
       <c r="H71" t="n">
-        <v>0.267486256730386</v>
+        <v>0.3</v>
       </c>
       <c r="I71" t="n">
-        <v>1.576520261114878</v>
+        <v>1.6</v>
       </c>
       <c r="J71" t="n">
-        <v>-80.47232992597814</v>
+        <v>-80.5</v>
       </c>
       <c r="K71" t="n">
-        <v>-1.309034004384492</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="72">
@@ -2866,14 +2866,14 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2893,29 +2893,29 @@
       <c r="C73" t="n">
         <v>2500</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
         <v>-1850</v>
       </c>
       <c r="H73" t="n">
-        <v>0.005706139378889099</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02525908067284387</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>-74</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.01955294129395477</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74">
@@ -2930,29 +2930,29 @@
       <c r="C74" t="n">
         <v>2500</v>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>-1850</v>
       </c>
       <c r="H74" t="n">
-        <v>0.005706139378889099</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02525908067284387</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>-74</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.01955294129395477</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75">
@@ -2963,14 +2963,14 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -2988,18 +2988,18 @@
         <v>500</v>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>0.004389337983760845</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3015,19 +3015,19 @@
       <c r="C77" t="n">
         <v>48825</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>0.4933098455406409</v>
+        <v>0.5</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3044,29 +3044,29 @@
       <c r="C78" t="n">
         <v>16030</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
         <v>-3650</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1086800084779185</v>
+        <v>0.1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1619612252742749</v>
+        <v>0.2</v>
       </c>
       <c r="J78" t="n">
-        <v>-22.76980661260137</v>
+        <v>-22.8</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.0532812167963564</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="79">
@@ -3081,29 +3081,29 @@
       <c r="C79" t="n">
         <v>64855</v>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>-51975</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1130693464616794</v>
+        <v>0.1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6552710708149158</v>
+        <v>0.7</v>
       </c>
       <c r="J79" t="n">
-        <v>-80.14031300593632</v>
+        <v>-80.09999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.5422017243532364</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80">
@@ -3114,14 +3114,14 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -3141,29 +3141,29 @@
       <c r="C81" t="n">
         <v>85000</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
         <v>45000</v>
       </c>
       <c r="H81" t="n">
-        <v>1.14122787577782</v>
+        <v>1.1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8588087428766917</v>
+        <v>0.9</v>
       </c>
       <c r="J81" t="n">
-        <v>52.94117647058824</v>
+        <v>52.9</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2824191329011282</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
@@ -3178,29 +3178,29 @@
       <c r="C82" t="n">
         <v>65325</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
         <v>-26860</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3376717710907218</v>
+        <v>0.3</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6600197779814104</v>
+        <v>0.7</v>
       </c>
       <c r="J82" t="n">
-        <v>-41.11748947569843</v>
+        <v>-41.1</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.3223480068906886</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="83">
@@ -3213,19 +3213,19 @@
       <c r="C83" t="n">
         <v>8625</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>0.08714382832131136</v>
+        <v>0.1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3242,29 +3242,29 @@
       <c r="C84" t="n">
         <v>158950</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>9515</v>
       </c>
       <c r="H84" t="n">
-        <v>1.478899646868542</v>
+        <v>1.5</v>
       </c>
       <c r="I84" t="n">
-        <v>1.605972349179414</v>
+        <v>1.6</v>
       </c>
       <c r="J84" t="n">
-        <v>5.986159169550173</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.1270727023108717</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="85">
@@ -3275,14 +3275,14 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -3300,18 +3300,18 @@
         <v>133534</v>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>1.172251716647042</v>
+        <v>1.2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3329,20 +3329,20 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>133534</v>
       </c>
       <c r="H87" t="n">
-        <v>1.172251716647042</v>
+        <v>1.2</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>1.172251716647042</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="88">
@@ -3368,29 +3368,29 @@
       <c r="C88" t="n">
         <v>130757</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
         <v>2527</v>
       </c>
       <c r="H88" t="n">
-        <v>1.170057047655161</v>
+        <v>1.2</v>
       </c>
       <c r="I88" t="n">
-        <v>1.321120644615619</v>
+        <v>1.3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.932592518947361</v>
+        <v>1.9</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.1510635969604575</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="89">
@@ -3403,19 +3403,19 @@
       <c r="C89" t="n">
         <v>514</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>0.005193266986336701</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3432,33 +3432,33 @@
       <c r="C90" t="n">
         <v>1261829</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>-70550</v>
       </c>
       <c r="H90" t="n">
-        <v>10.45785232791327</v>
+        <v>10.5</v>
       </c>
       <c r="I90" t="n">
-        <v>12.74905620253356</v>
+        <v>12.7</v>
       </c>
       <c r="J90" t="n">
-        <v>-5.591090393389279</v>
+        <v>-5.6</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.291203874620293</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="91">
@@ -3469,14 +3469,14 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -3496,29 +3496,29 @@
       <c r="C92" t="n">
         <v>146334</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
         <v>25468.60999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1.508199443564502</v>
+        <v>1.5</v>
       </c>
       <c r="I92" t="n">
-        <v>1.478504924471974</v>
+        <v>1.5</v>
       </c>
       <c r="J92" t="n">
-        <v>17.4044377929941</v>
+        <v>17.4</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02969451909252737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3533,29 +3533,29 @@
       <c r="C93" t="n">
         <v>146334</v>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>25468.60999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1.508199443564502</v>
+        <v>1.5</v>
       </c>
       <c r="I93" t="n">
-        <v>1.478504924471974</v>
+        <v>1.5</v>
       </c>
       <c r="J93" t="n">
-        <v>17.4044377929941</v>
+        <v>17.4</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02969451909252737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3570,29 +3570,29 @@
       <c r="C94" t="n">
         <v>544414.6799999997</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="b">
-        <v>1</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
         <v>-480012.8400000004</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5653628850721707</v>
+        <v>0.6</v>
       </c>
       <c r="I94" t="n">
-        <v>5.50056572864019</v>
+        <v>5.5</v>
       </c>
       <c r="J94" t="n">
-        <v>-88.17044389765549</v>
+        <v>-88.2</v>
       </c>
       <c r="K94" t="n">
-        <v>-4.935202843568019</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="95">
@@ -3603,14 +3603,14 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
